--- a/django_project/wfrp/example_media/default_items.xlsx
+++ b/django_project/wfrp/example_media/default_items.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t xml:space="preserve">character</t>
   </si>
@@ -44,6 +44,51 @@
   </si>
   <si>
     <t xml:space="preserve">Clothes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALUNDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabulous Hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLRELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healing Draught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock Picks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERDINAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grimoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amethyst Wizard's Uniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 sheets of Parchment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quill and Ink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMRIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Elf Clothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Bullets</t>
   </si>
 </sst>
 </file>
@@ -58,6 +103,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,16 +185,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.41"/>
   </cols>
   <sheetData>
@@ -205,6 +251,138 @@
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
